--- a/bases/UPDATE/SCN/Consumo de los hogares.xlsx
+++ b/bases/UPDATE/SCN/Consumo de los hogares.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="Consumo de los hogares" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Consumo_de_los_hogares" localSheetId="0">'Consumo de los hogares'!$A$1:$BF$28</definedName>
+    <definedName name="Consumo_de_los_hogares" localSheetId="0">'Consumo de los hogares'!$A$1:$BF$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,7 +23,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Consumo de los hogares.IQY" name="Consumo de los hogares" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\Consumo de los hogares.IQY" name="Consumo de los hogares" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,500864,500865,500866,500867,500868,500869,500870,500871,500872,500873,500874,500875,500877,500878,500879,500880,500881,500882,500883,500884,500885,500886,500887,500888,500889,500890,500891,500892,500893,500894,500895,500896,500897,500898,500899,500900,500901,500902,500903,500904,500905,500906,500907,500908,500909,500910,500911,500912,500913,500914,500915,500916,500917,500918,500919,500920,500921,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -246,7 +246,7 @@
   </si>
   <si>
     <r>
-      <t>2020</t>
+      <t>2021</t>
     </r>
     <r>
       <rPr>
@@ -276,7 +276,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2020</t>
+      <t xml:space="preserve"> A partir de 2021</t>
     </r>
   </si>
   <si>
@@ -295,7 +295,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 01/12/2021 9:53:00</t>
+    <t>Fecha de consulta: 03/01/2023 19:26:09</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF28"/>
+  <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4384,127 +4384,127 @@
         <v>2019</v>
       </c>
       <c r="B20" s="4">
-        <v>16148926.014</v>
+        <v>16149153.046</v>
       </c>
       <c r="C20" s="4">
-        <v>4025931.398</v>
+        <v>4025825.702</v>
       </c>
       <c r="D20" s="4">
-        <v>3590072.4210000001</v>
+        <v>3589967.4479999999</v>
       </c>
       <c r="E20" s="4">
-        <v>435858.97700000001</v>
+        <v>435858.25400000002</v>
       </c>
       <c r="F20" s="4">
-        <v>572016.39399999997</v>
+        <v>572015.53899999999</v>
       </c>
       <c r="G20" s="4">
-        <v>401743.89299999998</v>
+        <v>401743.234</v>
       </c>
       <c r="H20" s="4">
-        <v>170272.50099999999</v>
+        <v>170272.30499999999</v>
       </c>
       <c r="I20" s="4">
-        <v>455415.08199999999</v>
+        <v>455414.40299999999</v>
       </c>
       <c r="J20" s="4">
-        <v>339204.90299999999</v>
+        <v>339204.39799999999</v>
       </c>
       <c r="K20" s="4">
-        <v>116210.179</v>
+        <v>116210.005</v>
       </c>
       <c r="L20" s="4">
-        <v>2700036.1430000002</v>
+        <v>2700030.335</v>
       </c>
       <c r="M20" s="4">
         <v>2144457.4879999999</v>
       </c>
       <c r="N20" s="4">
-        <v>192026.71400000001</v>
+        <v>192021.79399999999</v>
       </c>
       <c r="O20" s="4">
-        <v>60074.027000000002</v>
+        <v>60074.023000000001</v>
       </c>
       <c r="P20" s="4">
-        <v>303477.91399999999</v>
+        <v>303477.03000000003</v>
       </c>
       <c r="Q20" s="4">
-        <v>907437.99300000002</v>
+        <v>907416.05099999998</v>
       </c>
       <c r="R20" s="4">
-        <v>136136.546</v>
+        <v>136115.61600000001</v>
       </c>
       <c r="S20" s="4">
-        <v>42062.75</v>
+        <v>42062.69</v>
       </c>
       <c r="T20" s="4">
-        <v>210661.62</v>
+        <v>210661.291</v>
       </c>
       <c r="U20" s="4">
-        <v>100156.25</v>
+        <v>100156.06200000001</v>
       </c>
       <c r="V20" s="4">
-        <v>64529.654000000002</v>
+        <v>64529.603000000003</v>
       </c>
       <c r="W20" s="4">
-        <v>353891.17300000001</v>
+        <v>353890.78899999999</v>
       </c>
       <c r="X20" s="4">
-        <v>572756.74800000002</v>
+        <v>572756.11399999994</v>
       </c>
       <c r="Y20" s="4">
-        <v>326745.261</v>
+        <v>326744.886</v>
       </c>
       <c r="Z20" s="4">
         <v>135479.38</v>
       </c>
       <c r="AA20" s="4">
-        <v>110532.107</v>
+        <v>110531.848</v>
       </c>
       <c r="AB20" s="4">
-        <v>2912017.2629999998</v>
+        <v>2912013.1009999998</v>
       </c>
       <c r="AC20" s="4">
-        <v>711231.15700000001</v>
+        <v>711230.33100000001</v>
       </c>
       <c r="AD20" s="4">
-        <v>1086841.1529999999</v>
+        <v>1086838.6510000001</v>
       </c>
       <c r="AE20" s="4">
-        <v>1113944.953</v>
+        <v>1113944.1189999999</v>
       </c>
       <c r="AF20" s="4">
-        <v>333674.91499999998</v>
+        <v>333385.978</v>
       </c>
       <c r="AG20" s="4">
-        <v>25675.653999999999</v>
+        <v>25675.567999999999</v>
       </c>
       <c r="AH20" s="4">
-        <v>4468.9790000000003</v>
+        <v>4468.9769999999999</v>
       </c>
       <c r="AI20" s="4">
-        <v>303530.28200000001</v>
+        <v>303241.43300000002</v>
       </c>
       <c r="AJ20" s="4">
-        <v>871918.06700000004</v>
+        <v>872580.55500000005</v>
       </c>
       <c r="AK20" s="4">
-        <v>358427.43599999999</v>
+        <v>359090.875</v>
       </c>
       <c r="AL20" s="4">
-        <v>13048.782999999999</v>
+        <v>13048.766</v>
       </c>
       <c r="AM20" s="4">
-        <v>133002.26199999999</v>
+        <v>133002.23699999999</v>
       </c>
       <c r="AN20" s="4">
-        <v>253255.524</v>
+        <v>253254.861</v>
       </c>
       <c r="AO20" s="4">
-        <v>85632.811000000002</v>
+        <v>85632.654999999999</v>
       </c>
       <c r="AP20" s="4">
-        <v>28551.251</v>
+        <v>28551.161</v>
       </c>
       <c r="AQ20" s="4">
         <v>235912.87899999999</v>
@@ -4525,337 +4525,451 @@
         <v>3542.6689999999999</v>
       </c>
       <c r="AW20" s="4">
-        <v>772110.04599999997</v>
+        <v>772107.94200000004</v>
       </c>
       <c r="AX20" s="4">
-        <v>384731.33</v>
+        <v>384730.49200000003</v>
       </c>
       <c r="AY20" s="4">
-        <v>387378.71600000001</v>
+        <v>387377.45</v>
       </c>
       <c r="AZ20" s="4">
-        <v>1789699.0859999999</v>
+        <v>1789694.4469999999</v>
       </c>
       <c r="BA20" s="4">
-        <v>194719.239</v>
+        <v>194718.97</v>
       </c>
       <c r="BB20" s="4">
-        <v>121274.087</v>
+        <v>121274.04</v>
       </c>
       <c r="BC20" s="4">
         <v>15729.128000000001</v>
       </c>
       <c r="BD20" s="4">
-        <v>280918.99</v>
+        <v>280918.05</v>
       </c>
       <c r="BE20" s="4">
-        <v>934197.46900000004</v>
+        <v>934194.375</v>
       </c>
       <c r="BF20" s="4">
-        <v>242860.17300000001</v>
+        <v>242859.88399999999</v>
       </c>
     </row>
-    <row r="21" spans="1:58" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>60</v>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>2020</v>
       </c>
       <c r="B21" s="4">
-        <v>14893299.471999999</v>
+        <v>14931433.012</v>
       </c>
       <c r="C21" s="4">
-        <v>4045026.679</v>
+        <v>4043558.5159999998</v>
       </c>
       <c r="D21" s="4">
-        <v>3599683.4670000002</v>
+        <v>3598086.11</v>
       </c>
       <c r="E21" s="4">
-        <v>445343.212</v>
+        <v>445472.40600000002</v>
       </c>
       <c r="F21" s="4">
-        <v>535917.49300000002</v>
+        <v>539385.49699999997</v>
       </c>
       <c r="G21" s="4">
-        <v>395737.43800000002</v>
+        <v>399250.31</v>
       </c>
       <c r="H21" s="4">
-        <v>140180.05499999999</v>
+        <v>140135.18700000001</v>
       </c>
       <c r="I21" s="4">
-        <v>329248.73599999998</v>
+        <v>331500.55900000001</v>
       </c>
       <c r="J21" s="4">
-        <v>243637.60800000001</v>
+        <v>245478.334</v>
       </c>
       <c r="K21" s="4">
-        <v>85611.127999999997</v>
+        <v>86022.225000000006</v>
       </c>
       <c r="L21" s="4">
-        <v>2738280.28</v>
+        <v>2738770.2459999998</v>
       </c>
       <c r="M21" s="4">
         <v>2223874.0490000001</v>
       </c>
       <c r="N21" s="4">
-        <v>184184.231</v>
+        <v>184926.424</v>
       </c>
       <c r="O21" s="4">
-        <v>62224.396999999997</v>
+        <v>62223.196000000004</v>
       </c>
       <c r="P21" s="4">
-        <v>267997.603</v>
+        <v>267746.57699999999</v>
       </c>
       <c r="Q21" s="4">
-        <v>913092.63199999998</v>
+        <v>915671.59900000005</v>
       </c>
       <c r="R21" s="4">
-        <v>118420.323</v>
+        <v>118363.723</v>
       </c>
       <c r="S21" s="4">
-        <v>53294.675000000003</v>
+        <v>53464.222999999904</v>
       </c>
       <c r="T21" s="4">
-        <v>218290.57500000001</v>
+        <v>218624.022</v>
       </c>
       <c r="U21" s="4">
-        <v>94937.153999999995</v>
+        <v>97341.832999999999</v>
       </c>
       <c r="V21" s="4">
-        <v>69174.194000000003</v>
+        <v>69409.626999999993</v>
       </c>
       <c r="W21" s="4">
-        <v>358975.71100000001</v>
+        <v>358468.17099999997</v>
       </c>
       <c r="X21" s="4">
-        <v>581974.29</v>
+        <v>583063.36300000001</v>
       </c>
       <c r="Y21" s="4">
-        <v>343016.97</v>
+        <v>343683.11700000003</v>
       </c>
       <c r="Z21" s="4">
-        <v>115088.254</v>
+        <v>114551.856</v>
       </c>
       <c r="AA21" s="4">
-        <v>123869.06600000001</v>
+        <v>124828.39</v>
       </c>
       <c r="AB21" s="4">
-        <v>2163664.213</v>
+        <v>2172309.1910000001</v>
       </c>
       <c r="AC21" s="4">
-        <v>570133.61300000001</v>
+        <v>569569.39399999997</v>
       </c>
       <c r="AD21" s="4">
-        <v>931030.50600000005</v>
+        <v>941541.36600000004</v>
       </c>
       <c r="AE21" s="4">
-        <v>662500.09400000004</v>
+        <v>661198.43099999998</v>
       </c>
       <c r="AF21" s="4">
-        <v>355065.27399999998</v>
+        <v>354385.25599999999</v>
       </c>
       <c r="AG21" s="4">
-        <v>30718.956999999999</v>
+        <v>30687.637999999999</v>
       </c>
       <c r="AH21" s="4">
-        <v>1230.009</v>
+        <v>1229.489</v>
       </c>
       <c r="AI21" s="4">
-        <v>323116.30800000002</v>
+        <v>322468.12900000002</v>
       </c>
       <c r="AJ21" s="4">
-        <v>728691.40599999996</v>
+        <v>736311.38399999996</v>
       </c>
       <c r="AK21" s="4">
-        <v>344235.46100000001</v>
+        <v>351452.61200000002</v>
       </c>
       <c r="AL21" s="4">
-        <v>12515.986000000001</v>
+        <v>12556.824000000001</v>
       </c>
       <c r="AM21" s="4">
-        <v>129414.86900000001</v>
+        <v>129328.192</v>
       </c>
       <c r="AN21" s="4">
-        <v>152428.21400000001</v>
+        <v>152611.07999999999</v>
       </c>
       <c r="AO21" s="4">
-        <v>75518.846999999994</v>
+        <v>75682.737999999998</v>
       </c>
       <c r="AP21" s="4">
-        <v>14578.029</v>
+        <v>14679.938</v>
       </c>
       <c r="AQ21" s="4">
-        <v>215641.74299999999</v>
+        <v>215614.50200000001</v>
       </c>
       <c r="AR21" s="4">
         <v>54483.131999999998</v>
       </c>
       <c r="AS21" s="4">
-        <v>57666.773999999998</v>
+        <v>57661.315999999999</v>
       </c>
       <c r="AT21" s="4">
         <v>663.58299999999997</v>
       </c>
       <c r="AU21" s="4">
-        <v>99837.214999999997</v>
+        <v>99815.432000000001</v>
       </c>
       <c r="AV21" s="4">
         <v>2991.0390000000002</v>
       </c>
       <c r="AW21" s="4">
-        <v>475320.08100000001</v>
+        <v>488096.89299999998</v>
       </c>
       <c r="AX21" s="4">
-        <v>296443.571</v>
+        <v>296250.56900000002</v>
       </c>
       <c r="AY21" s="4">
-        <v>178876.51</v>
+        <v>191846.32399999999</v>
       </c>
       <c r="AZ21" s="4">
-        <v>1811376.645</v>
+        <v>1812766.0060000001</v>
       </c>
       <c r="BA21" s="4">
-        <v>172704.109</v>
+        <v>172619.304</v>
       </c>
       <c r="BB21" s="4">
-        <v>125771.277</v>
+        <v>126196.11900000001</v>
       </c>
       <c r="BC21" s="4">
-        <v>14216.37</v>
+        <v>14084.194</v>
       </c>
       <c r="BD21" s="4">
-        <v>284962.01199999999</v>
+        <v>284673.00599999999</v>
       </c>
       <c r="BE21" s="4">
-        <v>962623.34299999999</v>
+        <v>961410.36300000001</v>
       </c>
       <c r="BF21" s="4">
-        <v>251099.53400000001</v>
+        <v>253783.02</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
+    <row r="22" spans="1:58" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="4">
+        <v>17143103.912</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4555422.6509999996</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4059785.9</v>
+      </c>
+      <c r="E22" s="4">
+        <v>495636.75099999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>621462.38699999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>472474.48800000001</v>
+      </c>
+      <c r="H22" s="4">
+        <v>148987.899</v>
+      </c>
+      <c r="I22" s="4">
+        <v>442246.90399999998</v>
+      </c>
+      <c r="J22" s="4">
+        <v>333810.74599999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>108436.158</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2917896.13</v>
+      </c>
+      <c r="M22" s="4">
+        <v>2281198.5269999998</v>
+      </c>
+      <c r="N22" s="4">
+        <v>235672.19</v>
+      </c>
+      <c r="O22" s="4">
+        <v>65674.953999999998</v>
+      </c>
+      <c r="P22" s="4">
+        <v>335350.45899999997</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1099040.693</v>
+      </c>
+      <c r="R22" s="4">
+        <v>153346.81400000001</v>
+      </c>
+      <c r="S22" s="4">
+        <v>54902.330999999998</v>
+      </c>
+      <c r="T22" s="4">
+        <v>269861.49900000001</v>
+      </c>
+      <c r="U22" s="4">
+        <v>127400.129</v>
+      </c>
+      <c r="V22" s="4">
+        <v>58793.362000000001</v>
+      </c>
+      <c r="W22" s="4">
+        <v>434736.55800000002</v>
+      </c>
+      <c r="X22" s="4">
+        <v>674980.26</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>383837.00300000003</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>140946.872</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>150196.38500000001</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>2779279.145</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>639395.35800000001</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>1245728.3189999999</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>894155.46799999999</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>378023.04399999999</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>35157.396999999997</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>1065.4870000000001</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>341800.16</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>882659.49300000002</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>413291.42599999998</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>15681.056</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>154111.66800000001</v>
+      </c>
+      <c r="AN22" s="4">
+        <v>199010.71900000001</v>
+      </c>
+      <c r="AO22" s="4">
+        <v>83764.183000000005</v>
+      </c>
+      <c r="AP22" s="4">
+        <v>16800.440999999999</v>
+      </c>
+      <c r="AQ22" s="4">
+        <v>219518.11799999999</v>
+      </c>
+      <c r="AR22" s="4">
+        <v>55532.59</v>
+      </c>
+      <c r="AS22" s="4">
+        <v>56451.057000000001</v>
+      </c>
+      <c r="AT22" s="4">
+        <v>626.59699999999998</v>
+      </c>
+      <c r="AU22" s="4">
+        <v>104355.386</v>
+      </c>
+      <c r="AV22" s="4">
+        <v>2552.4879999999998</v>
+      </c>
+      <c r="AW22" s="4">
+        <v>658734.23100000003</v>
+      </c>
+      <c r="AX22" s="4">
+        <v>348659.005</v>
+      </c>
+      <c r="AY22" s="4">
+        <v>310075.22600000002</v>
+      </c>
+      <c r="AZ22" s="4">
+        <v>1913840.8559999999</v>
+      </c>
+      <c r="BA22" s="4">
+        <v>192335.894</v>
+      </c>
+      <c r="BB22" s="4">
+        <v>181649.462</v>
+      </c>
+      <c r="BC22" s="4">
+        <v>14895.398999999999</v>
+      </c>
+      <c r="BD22" s="4">
+        <v>263821.12</v>
+      </c>
+      <c r="BE22" s="4">
+        <v>972389.772</v>
+      </c>
+      <c r="BF22" s="4">
+        <v>288749.20899999997</v>
+      </c>
     </row>
-    <row r="23" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.45">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
     </row>
     <row r="24" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4917,7 +5031,7 @@
     </row>
     <row r="25" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4977,27 +5091,89 @@
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
     </row>
-    <row r="27" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B28" s="6"/>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.45">
+      <c r="A29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:BF1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A22:BF22"/>
     <mergeCell ref="A23:BF23"/>
     <mergeCell ref="A24:BF24"/>
     <mergeCell ref="A25:BF25"/>
+    <mergeCell ref="A26:BF26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
